--- a/src/main/resources/template/template-import-users.xlsx
+++ b/src/main/resources/template/template-import-users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FALL 2023\Capstone\source_code\vms-server\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B37BA7-2720-4597-8D2A-C7F4672D45E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA5B4C0-3DA4-4680-A984-3C5F7D9BFE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Email</t>
   </si>
@@ -45,12 +45,6 @@
     <t>PhoneNumber</t>
   </si>
   <si>
-    <t>DepartmentCode</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
     <t>DateOfBirth</t>
   </si>
   <si>
@@ -72,13 +66,25 @@
     <t>0912345678</t>
   </si>
   <si>
-    <t>sample@gmaail.com</t>
-  </si>
-  <si>
     <t>2001-01-15</t>
   </si>
   <si>
-    <t>code1</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>SITE_2_Test</t>
+  </si>
+  <si>
+    <t>sample1@gmaail.com</t>
+  </si>
+  <si>
+    <t>MANAGER;GUARD</t>
   </si>
 </sst>
 </file>
@@ -462,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
@@ -477,14 +483,14 @@
     <col min="5" max="5" width="23.09765625" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.8984375" style="3" customWidth="1"/>
     <col min="7" max="8" width="19.59765625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="36.69921875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.3984375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="9" max="10" width="36.69921875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -505,50 +511,56 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{58F2B368-7CC1-49A1-860E-2FAA38734BB5}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 K1" xr:uid="{58F2B368-7CC1-49A1-860E-2FAA38734BB5}">
       <formula1>"1,0"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{DD53565C-3360-49B9-A946-DEE6DC621845}">
